--- a/data/trans_orig/P20B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17222</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10931</v>
+        <v>10962</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24628</v>
+        <v>24461</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2605555219577367</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1653774961484254</v>
+        <v>0.165840871534674</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3725966982467323</v>
+        <v>0.3700731011989495</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -765,19 +765,19 @@
         <v>31813</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23678</v>
+        <v>23788</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41709</v>
+        <v>40870</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3166626468725177</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2356863701285359</v>
+        <v>0.2367840727810928</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4151707578188714</v>
+        <v>0.406813484399949</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -786,19 +786,19 @@
         <v>49035</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38024</v>
+        <v>38410</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61172</v>
+        <v>61164</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2943972278018941</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2282893770836997</v>
+        <v>0.230605335903377</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.367264878147976</v>
+        <v>0.3672160988512685</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>48875</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41469</v>
+        <v>41636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>55166</v>
+        <v>55135</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7394444780422633</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6274033017532679</v>
+        <v>0.6299268988010508</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8346225038515749</v>
+        <v>0.834159128465326</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -836,19 +836,19 @@
         <v>68650</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58754</v>
+        <v>59593</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>76785</v>
+        <v>76675</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6833373531274822</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5848292421811279</v>
+        <v>0.5931865156000506</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.764313629871464</v>
+        <v>0.7632159272189065</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>118</v>
@@ -857,19 +857,19 @@
         <v>117525</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>105388</v>
+        <v>105396</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>128536</v>
+        <v>128150</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7056027721981059</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6327351218520239</v>
+        <v>0.6327839011487315</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7717106229163003</v>
+        <v>0.7693946640966229</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>9567</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4881</v>
+        <v>4688</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16170</v>
+        <v>15603</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2124426219427594</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1083855711301953</v>
+        <v>0.104094021015377</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3590801331136525</v>
+        <v>0.346488376795036</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -982,19 +982,19 @@
         <v>14231</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8608</v>
+        <v>9365</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21613</v>
+        <v>22457</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1247944336478827</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07548242094987437</v>
+        <v>0.08212114791349538</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1895262350000499</v>
+        <v>0.1969237826309533</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -1003,19 +1003,19 @@
         <v>23798</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16258</v>
+        <v>15817</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33362</v>
+        <v>32935</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1496076851892529</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1022059698032941</v>
+        <v>0.09943641452372533</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2097319555549651</v>
+        <v>0.2070434016922178</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>35466</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28863</v>
+        <v>29430</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>40152</v>
+        <v>40345</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7875573780572406</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6409198668863475</v>
+        <v>0.6535116232049639</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8916144288698048</v>
+        <v>0.895905978984623</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>94</v>
@@ -1053,19 +1053,19 @@
         <v>99807</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>92425</v>
+        <v>91581</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>105430</v>
+        <v>104673</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8752055663521173</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8104737649999502</v>
+        <v>0.8030762173690467</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9245175790501257</v>
+        <v>0.9178788520865047</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>127</v>
@@ -1074,19 +1074,19 @@
         <v>135273</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>125709</v>
+        <v>126136</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>142813</v>
+        <v>143254</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8503923148107471</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7902680444450347</v>
+        <v>0.7929565983077822</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8977940301967057</v>
+        <v>0.9005635854762746</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>8374</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3803</v>
+        <v>3932</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13686</v>
+        <v>13650</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3664634721616625</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1664169986804654</v>
+        <v>0.1720594884713127</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5989295332634552</v>
+        <v>0.5973478659867171</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1199,19 +1199,19 @@
         <v>4114</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9681</v>
+        <v>10157</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1214800230869617</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02930771198899298</v>
+        <v>0.02954151570597523</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2858764771075546</v>
+        <v>0.2999207376055243</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1220,19 +1220,19 @@
         <v>12488</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7050</v>
+        <v>7410</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19711</v>
+        <v>20086</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2201823895330435</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1242972523644833</v>
+        <v>0.1306462568759405</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3475330057984677</v>
+        <v>0.3541439511516356</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>14477</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9165</v>
+        <v>9201</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19048</v>
+        <v>18919</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6335365278383376</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.401070466736545</v>
+        <v>0.4026521340132833</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8335830013195349</v>
+        <v>0.8279405115286882</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -1270,19 +1270,19 @@
         <v>29752</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24185</v>
+        <v>23709</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32873</v>
+        <v>32866</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8785199769130383</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7141235228924421</v>
+        <v>0.7000792623944756</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.970692288011007</v>
+        <v>0.9704584842940247</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>42</v>
@@ -1291,19 +1291,19 @@
         <v>44229</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37006</v>
+        <v>36631</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49667</v>
+        <v>49307</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7798176104669564</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6524669942015323</v>
+        <v>0.6458560488483642</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8757027476355167</v>
+        <v>0.8693537431240596</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>35163</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24526</v>
+        <v>25427</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45410</v>
+        <v>45453</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.262447049217092</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1830524697558018</v>
+        <v>0.18977884689868</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3389237593735156</v>
+        <v>0.3392457584281728</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -1416,19 +1416,19 @@
         <v>50158</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39060</v>
+        <v>38647</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63100</v>
+        <v>63997</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2019519654144937</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1572661301764162</v>
+        <v>0.1556056068906921</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2540611946219508</v>
+        <v>0.2576700904987361</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -1437,19 +1437,19 @@
         <v>85321</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>69399</v>
+        <v>69022</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100473</v>
+        <v>101327</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2231504842371767</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1815077311453312</v>
+        <v>0.1805203362427505</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2627774922395265</v>
+        <v>0.2650107077365864</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>98819</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>88572</v>
+        <v>88529</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>109456</v>
+        <v>108555</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7375529507829081</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6610762406264841</v>
+        <v>0.6607542415718272</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8169475302441982</v>
+        <v>0.8102211531013199</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>189</v>
@@ -1487,19 +1487,19 @@
         <v>198209</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>185267</v>
+        <v>184370</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>209307</v>
+        <v>209720</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7980480345855063</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7459388053780496</v>
+        <v>0.742329909501264</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8427338698235841</v>
+        <v>0.844394393109308</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>287</v>
@@ -1508,19 +1508,19 @@
         <v>297028</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>281876</v>
+        <v>281022</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>312950</v>
+        <v>313327</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7768495157628234</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7372225077604736</v>
+        <v>0.734989292263414</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.818492268854669</v>
+        <v>0.8194796637572503</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>27823</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19700</v>
+        <v>19266</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38273</v>
+        <v>38308</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2804899280563026</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1985984275439185</v>
+        <v>0.1942236562869857</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.385827475124688</v>
+        <v>0.3861813134684142</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -1872,19 +1872,19 @@
         <v>39271</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28241</v>
+        <v>28491</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50462</v>
+        <v>51582</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2912198819628519</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2094238839395803</v>
+        <v>0.2112777712579359</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3742054125569975</v>
+        <v>0.3825125203300295</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -1893,19 +1893,19 @@
         <v>67094</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52867</v>
+        <v>52746</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82741</v>
+        <v>82318</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2866721970681436</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2258826361859992</v>
+        <v>0.2253651721462234</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3535244743194723</v>
+        <v>0.3517173465783622</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>71373</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60923</v>
+        <v>60888</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>79496</v>
+        <v>79930</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7195100719436974</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6141725248753119</v>
+        <v>0.6138186865315857</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8014015724560815</v>
+        <v>0.8057763437130142</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>91</v>
@@ -1943,19 +1943,19 @@
         <v>95579</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>84388</v>
+        <v>83268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>106609</v>
+        <v>106359</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7087801180371481</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6257945874430021</v>
+        <v>0.6174874796699701</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7905761160604196</v>
+        <v>0.7887222287420629</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>154</v>
@@ -1964,19 +1964,19 @@
         <v>166952</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>151305</v>
+        <v>151728</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>181179</v>
+        <v>181300</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7133278029318564</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6464755256805277</v>
+        <v>0.6482826534216377</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7741173638140004</v>
+        <v>0.7746348278537762</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>30112</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21181</v>
+        <v>21840</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39260</v>
+        <v>40006</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3195860245048699</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2247966070724112</v>
+        <v>0.2317909974247722</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4166791239186813</v>
+        <v>0.4245987649933867</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -2089,19 +2089,19 @@
         <v>33958</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24103</v>
+        <v>25048</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45298</v>
+        <v>46686</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2145044734522045</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.152254457995499</v>
+        <v>0.1582197796459002</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.286133655949919</v>
+        <v>0.2949008470405212</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -2110,19 +2110,19 @@
         <v>64070</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49521</v>
+        <v>49522</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77267</v>
+        <v>79869</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2537110977009786</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1960981537550475</v>
+        <v>0.1961029847872939</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3059707668044154</v>
+        <v>0.316273169167725</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>64109</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54961</v>
+        <v>54215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>73040</v>
+        <v>72381</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6804139754951301</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5833208760813188</v>
+        <v>0.5754012350066133</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7752033929275888</v>
+        <v>0.768209002575228</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>114</v>
@@ -2160,19 +2160,19 @@
         <v>124352</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>113012</v>
+        <v>111624</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>134207</v>
+        <v>133262</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7854955265477955</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7138663440500805</v>
+        <v>0.7050991529594784</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8477455420045009</v>
+        <v>0.8417802203540995</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>177</v>
@@ -2181,19 +2181,19 @@
         <v>188461</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>175264</v>
+        <v>172662</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>203010</v>
+        <v>203009</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7462889022990215</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6940292331955843</v>
+        <v>0.6837268308322748</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8039018462449524</v>
+        <v>0.8038970152127061</v>
       </c>
     </row>
     <row r="9">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8167</v>
+        <v>8354</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.226993976039179</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5995944597567096</v>
+        <v>0.6133037547162628</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -2306,19 +2306,19 @@
         <v>9034</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4079</v>
+        <v>3821</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14848</v>
+        <v>15437</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2183460955497416</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09859070439130405</v>
+        <v>0.09233799278165766</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3588509761811051</v>
+        <v>0.3730934070254057</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -2327,19 +2327,19 @@
         <v>12126</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6429</v>
+        <v>6596</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19253</v>
+        <v>20509</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2204878850413249</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1169055097061177</v>
+        <v>0.1199255632902269</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3500645951761055</v>
+        <v>0.3729140791097347</v>
       </c>
     </row>
     <row r="11">
@@ -2356,7 +2356,7 @@
         <v>10529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5454</v>
+        <v>5267</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>13621</v>
@@ -2365,7 +2365,7 @@
         <v>0.773006023960821</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4004055402432891</v>
+        <v>0.3866962452837379</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2377,19 +2377,19 @@
         <v>32342</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26528</v>
+        <v>25939</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37297</v>
+        <v>37555</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7816539044502584</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.641149023818895</v>
+        <v>0.6269065929745944</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9014092956086961</v>
+        <v>0.9076620072183424</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>40</v>
@@ -2398,19 +2398,19 @@
         <v>42871</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35744</v>
+        <v>34488</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>48568</v>
+        <v>48401</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7795121149586751</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6499354048238944</v>
+        <v>0.6270859208902653</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8830944902938822</v>
+        <v>0.8800744367097733</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>61027</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48485</v>
+        <v>47138</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74826</v>
+        <v>75760</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.29476276731345</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2341835529415638</v>
+        <v>0.2276797218571152</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.361410681342252</v>
+        <v>0.3659250398068002</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -2523,19 +2523,19 @@
         <v>82264</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66852</v>
+        <v>65152</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98032</v>
+        <v>98637</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2459032968918332</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1998354733789942</v>
+        <v>0.1947541617069954</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2930387831503881</v>
+        <v>0.2948484358868057</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -2544,19 +2544,19 @@
         <v>143291</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121401</v>
+        <v>122636</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>164629</v>
+        <v>164503</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2645817429454672</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.22416355193884</v>
+        <v>0.2264442099711189</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3039825049889701</v>
+        <v>0.303749768664548</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>146011</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>132212</v>
+        <v>131278</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>158553</v>
+        <v>159900</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.70523723268655</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.638589318657748</v>
+        <v>0.6340749601931996</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7658164470584361</v>
+        <v>0.7723202781428844</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>236</v>
@@ -2594,19 +2594,19 @@
         <v>252272</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>236504</v>
+        <v>235899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>267684</v>
+        <v>269384</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7540967031081668</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.706961216849612</v>
+        <v>0.7051515641131941</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8001645266210058</v>
+        <v>0.8052458382930046</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>371</v>
@@ -2615,19 +2615,19 @@
         <v>398283</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>376945</v>
+        <v>377071</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>420173</v>
+        <v>418938</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7354182570545328</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6960174950110299</v>
+        <v>0.6962502313354521</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7758364480611598</v>
+        <v>0.7735557900288814</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>16390</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10530</v>
+        <v>9893</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24502</v>
+        <v>24153</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2958882394696541</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1900905333106669</v>
+        <v>0.178588180024236</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4423328286496399</v>
+        <v>0.4360291509470007</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -2979,19 +2979,19 @@
         <v>30215</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21644</v>
+        <v>21332</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39868</v>
+        <v>39742</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3667257449298761</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.262698798534694</v>
+        <v>0.2589119158143994</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4838821986676315</v>
+        <v>0.4823485028433945</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -3000,19 +3000,19 @@
         <v>46605</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34820</v>
+        <v>35710</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58685</v>
+        <v>57570</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.338247411664555</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2527148885427901</v>
+        <v>0.2591772549466204</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4259218836725048</v>
+        <v>0.4178283587027877</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>39003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30891</v>
+        <v>31240</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44863</v>
+        <v>45500</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.704111760530346</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5576671713503601</v>
+        <v>0.5639708490529992</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8099094666893328</v>
+        <v>0.8214118199757638</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -3050,19 +3050,19 @@
         <v>52177</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42524</v>
+        <v>42650</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60748</v>
+        <v>61060</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6332742550701239</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5161178013323684</v>
+        <v>0.5176514971566054</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7373012014653059</v>
+        <v>0.7410880841856002</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>85</v>
@@ -3071,19 +3071,19 @@
         <v>91179</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>79099</v>
+        <v>80214</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>102964</v>
+        <v>102074</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6617525883354449</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5740781163274948</v>
+        <v>0.5821716412972123</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7472851114572097</v>
+        <v>0.7408227450533797</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>34025</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25235</v>
+        <v>25171</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43169</v>
+        <v>43312</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4195238030712321</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3111481633995724</v>
+        <v>0.3103572853939048</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5322713119072667</v>
+        <v>0.5340308501043837</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -3196,19 +3196,19 @@
         <v>33414</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24107</v>
+        <v>23897</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44705</v>
+        <v>44590</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2359268233181976</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1702136868817688</v>
+        <v>0.1687288720315226</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3156490271261086</v>
+        <v>0.3148358121156594</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -3217,19 +3217,19 @@
         <v>67440</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53655</v>
+        <v>53286</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82735</v>
+        <v>83338</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3027801072728334</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2408927113023991</v>
+        <v>0.2392347564382476</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3714507082352643</v>
+        <v>0.3741584489947463</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>47079</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37935</v>
+        <v>37792</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>55869</v>
+        <v>55933</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.580476196928768</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4677286880927329</v>
+        <v>0.4659691498956162</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6888518366004276</v>
+        <v>0.6896427146060952</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>103</v>
@@ -3267,19 +3267,19 @@
         <v>108216</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>96925</v>
+        <v>97040</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>117523</v>
+        <v>117733</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7640731766818024</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6843509728738914</v>
+        <v>0.6851641878843406</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8297863131182311</v>
+        <v>0.8312711279684774</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>148</v>
@@ -3288,19 +3288,19 @@
         <v>155295</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>140000</v>
+        <v>139397</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>169080</v>
+        <v>169449</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6972198927271666</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6285492917647357</v>
+        <v>0.6258415510052535</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7591072886976008</v>
+        <v>0.7607652435617523</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>4336</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1388</v>
+        <v>960</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10121</v>
+        <v>9811</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1668970082680741</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05343512133158428</v>
+        <v>0.03694468073784878</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3895837616827637</v>
+        <v>0.3776421325031262</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6306</v>
+        <v>6183</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04432430962362995</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1385665300483953</v>
+        <v>0.1358570117643987</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -3434,19 +3434,19 @@
         <v>6353</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2769</v>
+        <v>2686</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12750</v>
+        <v>12646</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0888691110917755</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03873886424782393</v>
+        <v>0.0375788154865124</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1783525908704184</v>
+        <v>0.1768882394324559</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>21644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15859</v>
+        <v>16169</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24592</v>
+        <v>25020</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8331029917319259</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6104162383172365</v>
+        <v>0.6223578674968715</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9465648786684159</v>
+        <v>0.9630553192621512</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -3484,7 +3484,7 @@
         <v>43492</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39203</v>
+        <v>39326</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>45509</v>
@@ -3493,7 +3493,7 @@
         <v>0.95567569037637</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.861433469951605</v>
+        <v>0.8641429882356013</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3505,19 +3505,19 @@
         <v>65136</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58739</v>
+        <v>58843</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>68720</v>
+        <v>68803</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9111308889082245</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8216474091295816</v>
+        <v>0.8231117605675441</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9612611357521761</v>
+        <v>0.9624211845134876</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>54751</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42649</v>
+        <v>43041</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66307</v>
+        <v>67977</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3369781723023659</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2624940483578942</v>
+        <v>0.264902479549987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4081006630758622</v>
+        <v>0.4183779958695406</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -3630,19 +3630,19 @@
         <v>65647</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51785</v>
+        <v>52095</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81895</v>
+        <v>81309</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2435591731291409</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1921303480164307</v>
+        <v>0.1932809052918325</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3038407881599366</v>
+        <v>0.3016669912027148</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>110</v>
@@ -3651,19 +3651,19 @@
         <v>120398</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>101529</v>
+        <v>101698</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>139655</v>
+        <v>141036</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2786938489210258</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2350172219506103</v>
+        <v>0.2354083753650303</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3232685664287526</v>
+        <v>0.3264660617577071</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>107726</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>96170</v>
+        <v>94500</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>119828</v>
+        <v>119436</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6630218276976342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5918993369241378</v>
+        <v>0.5816220041304593</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7375059516421061</v>
+        <v>0.735097520450013</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>188</v>
@@ -3701,19 +3701,19 @@
         <v>203884</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>187636</v>
+        <v>188222</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>217746</v>
+        <v>217436</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7564408268708591</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6961592118400635</v>
+        <v>0.6983330087972852</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8078696519835695</v>
+        <v>0.8067190947081676</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>291</v>
@@ -3722,19 +3722,19 @@
         <v>311610</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>292353</v>
+        <v>290972</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>330479</v>
+        <v>330310</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7213061510789742</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6767314335712474</v>
+        <v>0.6735339382422929</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7649827780493899</v>
+        <v>0.7645916246349697</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>19461</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13779</v>
+        <v>13374</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26374</v>
+        <v>25763</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3341690686533742</v>
+        <v>0.3341690686533741</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2365988961195797</v>
+        <v>0.22965262114929</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4528681067953611</v>
+        <v>0.4423779112860063</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -4086,19 +4086,19 @@
         <v>15150</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10559</v>
+        <v>10546</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20896</v>
+        <v>20807</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2504189898342076</v>
+        <v>0.2504189898342075</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1745368018978862</v>
+        <v>0.1743207697817727</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.345397676670435</v>
+        <v>0.3439244825750335</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -4107,19 +4107,19 @@
         <v>34611</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26563</v>
+        <v>26750</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43241</v>
+        <v>43811</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2914962966886225</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2237163316203709</v>
+        <v>0.2252886077823599</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3641780078050106</v>
+        <v>0.3689781503909524</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>38776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31863</v>
+        <v>32474</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44458</v>
+        <v>44863</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6658309313466259</v>
+        <v>0.665830931346626</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5471318932046391</v>
+        <v>0.5576220887139935</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7634011038804203</v>
+        <v>0.77034737885071</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>81</v>
@@ -4157,19 +4157,19 @@
         <v>45348</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39602</v>
+        <v>39691</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49939</v>
+        <v>49952</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7495810101657925</v>
+        <v>0.7495810101657924</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6546023233295652</v>
+        <v>0.6560755174249666</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8254631981021139</v>
+        <v>0.8256792302182272</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>134</v>
@@ -4178,19 +4178,19 @@
         <v>84124</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>75494</v>
+        <v>74924</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>92172</v>
+        <v>91985</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7085037033113775</v>
+        <v>0.7085037033113774</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6358219921949894</v>
+        <v>0.6310218496090474</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7762836683796287</v>
+        <v>0.7747113922176402</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>37553</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27574</v>
+        <v>28100</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47865</v>
+        <v>48717</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3556601613679245</v>
+        <v>0.3556601613679247</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2611443849512395</v>
+        <v>0.2661303741750171</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4533197376936826</v>
+        <v>0.4613918384183566</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -4303,19 +4303,19 @@
         <v>32245</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23983</v>
+        <v>23314</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43177</v>
+        <v>43694</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2395338971873371</v>
+        <v>0.239533897187337</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1781598949212718</v>
+        <v>0.1731870154800881</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3207442578517923</v>
+        <v>0.3245862153032181</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -4324,19 +4324,19 @@
         <v>69798</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55550</v>
+        <v>54311</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84668</v>
+        <v>84497</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2905803462819385</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2312611069077091</v>
+        <v>0.2261045004019653</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3524871389102543</v>
+        <v>0.3517737555935031</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>68035</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>57723</v>
+        <v>56871</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>78014</v>
+        <v>77488</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6443398386320753</v>
+        <v>0.6443398386320754</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5466802623063183</v>
+        <v>0.538608161581645</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7388556150487607</v>
+        <v>0.7338696258249833</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>129</v>
@@ -4374,19 +4374,19 @@
         <v>102370</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>91438</v>
+        <v>90921</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>110632</v>
+        <v>111301</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.760466102812663</v>
+        <v>0.7604661028126628</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6792557421482076</v>
+        <v>0.6754137846967819</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8218401050787282</v>
+        <v>0.8268129845199118</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>199</v>
@@ -4395,19 +4395,19 @@
         <v>170405</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>155535</v>
+        <v>155706</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>184653</v>
+        <v>185892</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7094196537180615</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6475128610897457</v>
+        <v>0.6482262444064969</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7687388930922909</v>
+        <v>0.7738954995980346</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>11188</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5860</v>
+        <v>5992</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18212</v>
+        <v>19154</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.276336362976689</v>
+        <v>0.2763363629766891</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1447352535861009</v>
+        <v>0.1480105972439099</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4498361610808806</v>
+        <v>0.4731090638091808</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -4520,19 +4520,19 @@
         <v>9336</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5432</v>
+        <v>5638</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14955</v>
+        <v>14855</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1874650979184206</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1090856905735222</v>
+        <v>0.1132157845308448</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3002987564769444</v>
+        <v>0.2982951910981074</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -4541,19 +4541,19 @@
         <v>20523</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13962</v>
+        <v>13932</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30327</v>
+        <v>30367</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2273171996936056</v>
+        <v>0.2273171996936057</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1546431265500486</v>
+        <v>0.1543164152009248</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3359072076887177</v>
+        <v>0.3363441289367089</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>29298</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22274</v>
+        <v>21332</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34626</v>
+        <v>34494</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7236636370233109</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5501638389191198</v>
+        <v>0.5268909361908193</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8552647464138993</v>
+        <v>0.8519894027560901</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>49</v>
@@ -4591,19 +4591,19 @@
         <v>40463</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34844</v>
+        <v>34944</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44367</v>
+        <v>44161</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8125349020815795</v>
+        <v>0.8125349020815794</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6997012435230548</v>
+        <v>0.7017048089018924</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8909143094264778</v>
+        <v>0.8867842154691551</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>76</v>
@@ -4612,19 +4612,19 @@
         <v>69762</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>59958</v>
+        <v>59918</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>76323</v>
+        <v>76353</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7726828003063942</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6640927923112819</v>
+        <v>0.6636558710632918</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8453568734499514</v>
+        <v>0.8456835847990757</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>68202</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54811</v>
+        <v>54987</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82474</v>
+        <v>81394</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3338155774878314</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2682739967005121</v>
+        <v>0.2691325239327138</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4036666414529094</v>
+        <v>0.3983837612021793</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -4737,19 +4737,19 @@
         <v>56731</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45726</v>
+        <v>45980</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72330</v>
+        <v>71184</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2316354074137449</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1867020663385366</v>
+        <v>0.1877395591076358</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2953301315273403</v>
+        <v>0.2906505074267933</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>161</v>
@@ -4758,19 +4758,19 @@
         <v>124932</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>107030</v>
+        <v>107383</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143930</v>
+        <v>144390</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2781077920073647</v>
+        <v>0.2781077920073648</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2382566296412824</v>
+        <v>0.2390419154389096</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3203983003510412</v>
+        <v>0.3214210486137822</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>136109</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>121837</v>
+        <v>122917</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>149500</v>
+        <v>149324</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6661844225121687</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5963333585470904</v>
+        <v>0.6016162387978206</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7317260032994878</v>
+        <v>0.7308674760672863</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>259</v>
@@ -4808,19 +4808,19 @@
         <v>188182</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>172583</v>
+        <v>173729</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199187</v>
+        <v>198933</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7683645925862552</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7046698684726598</v>
+        <v>0.7093494925732063</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8132979336614637</v>
+        <v>0.8122604408923642</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>409</v>
@@ -4829,19 +4829,19 @@
         <v>324291</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>305293</v>
+        <v>304833</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>342193</v>
+        <v>341840</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7218922079926353</v>
+        <v>0.7218922079926351</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6796016996489588</v>
+        <v>0.678578951386218</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7617433703587178</v>
+        <v>0.7609580845610907</v>
       </c>
     </row>
     <row r="15">
